--- a/data/trans_camb/P14_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Edad-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>21,46</t>
+          <t>19,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>19,85</t>
+          <t>24,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>20,57</t>
+          <t>21,75</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,12; 33,94</t>
+          <t>7,85; 37,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,3; 30,32</t>
+          <t>9,36; 38,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,1; 28,59</t>
+          <t>11,8; 32,51</t>
         </is>
       </c>
     </row>
@@ -607,12 +607,12 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>546,5%</t>
+          <t>376,87%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1089,37%</t>
+          <t>611,61%</t>
         </is>
       </c>
     </row>
@@ -630,12 +630,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,74; 2374,59</t>
+          <t>47,23; 1759,96</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>254,79; 4316,59</t>
+          <t>142,05; 2662,44</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>9,4</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>15,4</t>
+          <t>16,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>12,4</t>
+          <t>11,33</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 20,13</t>
+          <t>-0,49; 19,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,02; 25,36</t>
+          <t>4,62; 30,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,4; 19,27</t>
+          <t>4,55; 19,91</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>234,41%</t>
+          <t>385,39%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>470,88%</t>
+          <t>446,69%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>342,23%</t>
+          <t>415,68%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-19,8; 1473,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>51,6; 2047,47</t>
+          <t>-12,92; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>89,53; 1114,38</t>
+          <t>29,3; 1900,94</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>22,38</t>
+          <t>27,62</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>19,47</t>
+          <t>20,48</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,86; 31,56</t>
+          <t>14,96; 42,79</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 25,18</t>
+          <t>6,63; 25,95</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,25; 25,71</t>
+          <t>12,8; 27,69</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>720,57%</t>
+          <t>827,65%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>372,28%</t>
+          <t>331,87%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>505,37%</t>
+          <t>482,73%</t>
         </is>
       </c>
     </row>
@@ -817,17 +817,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>204,81; 3277,43</t>
+          <t>115,26; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>110,73; 1005,2</t>
+          <t>51,85; 1221,31</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>228,53; 1075,8</t>
+          <t>164,79; 1375,1</t>
         </is>
       </c>
     </row>
@@ -844,17 +844,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,41</t>
+          <t>14,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>17,65</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>16,19</t>
+          <t>16,31</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>7,99; 21,5</t>
+          <t>6,7; 24,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>11,17; 24,68</t>
+          <t>9,52; 26,23</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>11,44; 21,11</t>
+          <t>10,5; 23,06</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>441,03%</t>
+          <t>612,37%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>638,83%</t>
+          <t>564,71%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>541,77%</t>
+          <t>583,35%</t>
         </is>
       </c>
     </row>
@@ -913,17 +913,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>94,19; 2159,17</t>
+          <t>51,38; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>204,97; 2123,17</t>
+          <t>95,27; 2368,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>228,92; 1194,99</t>
+          <t>186,49; 1869,04</t>
         </is>
       </c>
     </row>
@@ -940,17 +940,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>12,74</t>
+          <t>14,98</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>17,51</t>
+          <t>18,76</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>15,01</t>
+          <t>16,55</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,99; 20,27</t>
+          <t>6,3; 25,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,31; 26,88</t>
+          <t>7,62; 30,35</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>10,16; 20,65</t>
+          <t>9,6; 24,49</t>
         </is>
       </c>
     </row>
@@ -986,17 +986,17 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>1214,88%</t>
+          <t>868,42%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1010,1%</t>
+          <t>928,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>1091,02%</t>
+          <t>894,04%</t>
         </is>
       </c>
     </row>
@@ -1014,12 +1014,12 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>166,81; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>305,54; 4332,61</t>
+          <t>153,85; —</t>
         </is>
       </c>
     </row>
@@ -1036,17 +1036,17 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>11,22</t>
+          <t>14,22</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>11,73</t>
         </is>
       </c>
     </row>
@@ -1059,17 +1059,17 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3,77; 20,9</t>
+          <t>5,13; 30,19</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 10,65</t>
+          <t>0,17; 21,89</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 12,64</t>
+          <t>4,54; 20,73</t>
         </is>
       </c>
     </row>
@@ -1082,17 +1082,17 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>794,0%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>51,2%</t>
+          <t>385,92%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>167,08%</t>
+          <t>836,37%</t>
         </is>
       </c>
     </row>
@@ -1110,12 +1110,12 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-84,39; 687,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-36,69; 803,31</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1132,17 +1132,17 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>15,65</t>
+          <t>16,15</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>15,24</t>
+          <t>17,11</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>15,43</t>
+          <t>16,63</t>
         </is>
       </c>
     </row>
@@ -1155,17 +1155,17 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>12,11; 19,89</t>
+          <t>11,48; 20,76</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>11,46; 18,55</t>
+          <t>12,47; 21,8</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>13,06; 18,2</t>
+          <t>13,45; 19,6</t>
         </is>
       </c>
     </row>
@@ -1178,17 +1178,17 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>678,39%</t>
+          <t>919,34%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>416,87%</t>
+          <t>443,64%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>510,96%</t>
+          <t>576,2%</t>
         </is>
       </c>
     </row>
@@ -1201,17 +1201,24 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>346,41; 1403,19</t>
+          <t>293,89; 2214,05</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>213,61; 720,77</t>
+          <t>221,46; 835,79</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>318,01; 778,47</t>
+          <t>355,66; 989,05</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P14_1-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P14_1-Edad-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,203 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>19,4</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>24,1</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>21,75</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.70553605408129</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>25.22245231133513</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>22.39977261709804</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>7,85; 37,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>9,36; 38,03</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>11,8; 32,51</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>8.068642147203652</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>10.45230050368918</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>12.61494542377687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>376,87%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>611,61%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>39.89279813353341</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>40.20912771667754</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>33.8816095679462</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>47,23; 1759,96</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>142,05; 2662,44</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>4.212644146854045</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>6.496075040832651</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>25-34</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>16,48</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>11,33</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr"/>
+      <c r="D8" s="6" t="n">
+        <v>0.6228483845774335</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>1.621603140817914</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,49; 19,9</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>4,62; 30,25</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,55; 19,91</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr"/>
+      <c r="D9" s="6" t="n">
+        <v>20.62384627143286</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>31.03100689004647</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>385,39%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>446,69%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>415,68%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>7.699653760981423</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>16.71687373246299</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>12.06538069666127</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-12,92; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>29,3; 1900,94</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>0.7683458808177253</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>5.56819304285328</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>5.555271668985904</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>27,62</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,92</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>20,48</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>20.63611418428308</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>29.96126424687924</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>20.53821744916952</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>14,96; 42,79</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,63; 25,95</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>12,8; 27,69</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>5.333040172283602</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>5.188089284218675</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>5.284118397132651</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>827,65%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>331,87%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>482,73%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr"/>
+      <c r="D14" s="6" t="n">
+        <v>-0.0103781698153733</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>0.6385047591812101</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>115,26; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>51,85; 1221,31</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>164,79; 1375,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="inlineStr"/>
+      <c r="D15" s="6" t="inlineStr"/>
+      <c r="E15" s="6" t="n">
+        <v>25.53710274061802</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,287 +767,207 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>14,86</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>17,57</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>16,31</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>26.25341750160664</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>16.15888702930754</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>20.16108021123418</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>6,7; 24,52</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>9,52; 26,23</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>10,5; 23,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>14.17538234164061</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>6.488457753917388</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>12.62865793597564</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>612,37%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>564,71%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>583,35%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>40.84609972565135</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>26.07182561719431</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>27.22412794070556</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>51,38; —</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>95,27; 2368,51</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>186,49; 1869,04</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>8.526729932619425</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>3.383545627888736</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>4.897593396490858</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>14,98</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>18,76</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16,55</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>1.390011383286485</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>0.5637328887063947</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>1.695729850347043</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 25,68</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>7,62; 30,35</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>9,6; 24,49</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="inlineStr"/>
+      <c r="D21" s="6" t="n">
+        <v>12.49712735632286</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>14.23490214579267</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>868,42%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>928,11%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>894,04%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>14.39231376298696</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>18.77274623253442</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>16.7290999575804</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>153,85; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>6.705943597008257</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>10.39636646186268</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>10.85608256265722</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>14,22</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>9,71</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>11,73</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>23.78787039460589</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>27.71985163462844</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>23.87351716045389</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>5,13; 30,19</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>0,17; 21,89</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>4,54; 20,73</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>6.494323694074979</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>6.800575503785629</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>6.659709795583704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>385,92%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>836,37%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>0.6497973967344054</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>1.432311333765944</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>2.191433866711707</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="inlineStr"/>
+      <c r="D27" s="6" t="n">
+        <v>27.77737155031476</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>21.44074551428022</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1130,93 +975,295 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>16,15</t>
-        </is>
-      </c>
-      <c r="D28" s="2" t="inlineStr">
-        <is>
-          <t>17,11</t>
-        </is>
-      </c>
-      <c r="E28" s="2" t="inlineStr">
-        <is>
-          <t>16,63</t>
-        </is>
+      <c r="C28" s="5" t="n">
+        <v>14.80624796817623</v>
+      </c>
+      <c r="D28" s="5" t="n">
+        <v>19.93930298291529</v>
+      </c>
+      <c r="E28" s="5" t="n">
+        <v>16.93774248651455</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr">
-        <is>
-          <t>11,48; 20,76</t>
-        </is>
-      </c>
-      <c r="D29" s="2" t="inlineStr">
-        <is>
-          <t>12,47; 21,8</t>
-        </is>
-      </c>
-      <c r="E29" s="2" t="inlineStr">
-        <is>
-          <t>13,45; 19,6</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="n">
+        <v>6.056722599550226</v>
+      </c>
+      <c r="D29" s="5" t="n">
+        <v>8.853937858002965</v>
+      </c>
+      <c r="E29" s="5" t="n">
+        <v>9.790123869117675</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C30" s="2" t="inlineStr">
-        <is>
-          <t>919,34%</t>
-        </is>
-      </c>
-      <c r="D30" s="2" t="inlineStr">
-        <is>
-          <t>443,64%</t>
-        </is>
-      </c>
-      <c r="E30" s="2" t="inlineStr">
-        <is>
-          <t>576,2%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C30" s="5" t="n">
+        <v>25.45260896319637</v>
+      </c>
+      <c r="D30" s="5" t="n">
+        <v>32.10034207862905</v>
+      </c>
+      <c r="E30" s="5" t="n">
+        <v>25.19597881087194</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>293,89; 2214,05</t>
-        </is>
-      </c>
-      <c r="D31" s="2" t="inlineStr">
-        <is>
-          <t>221,46; 835,79</t>
-        </is>
-      </c>
-      <c r="E31" s="2" t="inlineStr">
-        <is>
-          <t>355,66; 989,05</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C31" s="6" t="n">
+        <v>8.634750632797845</v>
+      </c>
+      <c r="D31" s="6" t="n">
+        <v>10.87444318071199</v>
+      </c>
+      <c r="E31" s="6" t="n">
+        <v>9.595767085971723</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr"/>
+      <c r="D32" s="6" t="inlineStr"/>
+      <c r="E32" s="6" t="n">
+        <v>1.58283168325306</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C33" s="6" t="inlineStr"/>
+      <c r="D33" s="6" t="inlineStr"/>
+      <c r="E33" s="6" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C34" s="5" t="n">
+        <v>14.64964199766422</v>
+      </c>
+      <c r="D34" s="5" t="n">
+        <v>8.711098609935217</v>
+      </c>
+      <c r="E34" s="5" t="n">
+        <v>11.41254588133949</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C35" s="5" t="n">
+        <v>5.040526905700868</v>
+      </c>
+      <c r="D35" s="5" t="n">
+        <v>-1.876553663235761</v>
+      </c>
+      <c r="E35" s="5" t="n">
+        <v>3.666121525388779</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C36" s="5" t="n">
+        <v>30.69654125515343</v>
+      </c>
+      <c r="D36" s="5" t="n">
+        <v>20.77707992116879</v>
+      </c>
+      <c r="E36" s="5" t="n">
+        <v>20.35142407736069</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C37" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="D37" s="6" t="n">
+        <v>2.64205016165193</v>
+      </c>
+      <c r="E37" s="6" t="n">
+        <v>6.502401462069558</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C38" s="6" t="inlineStr"/>
+      <c r="D38" s="6" t="inlineStr"/>
+      <c r="E38" s="6" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C39" s="6" t="inlineStr"/>
+      <c r="D39" s="6" t="inlineStr"/>
+      <c r="E39" s="6" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C40" s="5" t="n">
+        <v>16.18073040491044</v>
+      </c>
+      <c r="D40" s="5" t="n">
+        <v>17.66673102128967</v>
+      </c>
+      <c r="E40" s="5" t="n">
+        <v>16.95172264602004</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C41" s="5" t="n">
+        <v>11.48370190805207</v>
+      </c>
+      <c r="D41" s="5" t="n">
+        <v>12.9948033468546</v>
+      </c>
+      <c r="E41" s="5" t="n">
+        <v>13.72267640907409</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C42" s="5" t="n">
+        <v>21.06280033072713</v>
+      </c>
+      <c r="D42" s="5" t="n">
+        <v>22.66629836505872</v>
+      </c>
+      <c r="E42" s="5" t="n">
+        <v>19.87823728530118</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C43" s="6" t="n">
+        <v>9.991059542607653</v>
+      </c>
+      <c r="D43" s="6" t="n">
+        <v>4.706719613723677</v>
+      </c>
+      <c r="E43" s="6" t="n">
+        <v>6.151177940741887</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C44" s="6" t="n">
+        <v>3.017354338270003</v>
+      </c>
+      <c r="D44" s="6" t="n">
+        <v>2.361819456156709</v>
+      </c>
+      <c r="E44" s="6" t="n">
+        <v>3.735545397497007</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="n">
+        <v>23.13286374527125</v>
+      </c>
+      <c r="D45" s="6" t="n">
+        <v>9.20150197465469</v>
+      </c>
+      <c r="E45" s="6" t="n">
+        <v>10.54172366354386</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1224,14 +1271,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A40:A45"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A34:A39"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
